--- a/ES_Stückliste_G3_30-10-19.xlsx
+++ b/ES_Stückliste_G3_30-10-19.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383DD9BF-2FAE-43B6-9969-25F73BAA9E41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -140,9 +149,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -213,10 +222,10 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -226,10 +235,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -327,6 +336,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -362,6 +388,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +592,7 @@
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="162.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
@@ -631,7 +674,7 @@
         <v>36.22</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H12" si="0">F3*G3</f>
+        <f t="shared" ref="H3:H9" si="0">F3*G3</f>
         <v>36.22</v>
       </c>
     </row>
@@ -816,14 +859,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
